--- a/src/main/resources/static/excel/基础数据-尺码.xlsx
+++ b/src/main/resources/static/excel/基础数据-尺码.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="26835" windowHeight="17055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -49,10 +62,10 @@
     <t>Dimension Type</t>
   </si>
   <si>
-    <t>翻译名称</t>
-  </si>
-  <si>
-    <t>欧码</t>
+    <t>欧码[EUR]</t>
+  </si>
+  <si>
+    <t>外部尺码</t>
   </si>
   <si>
     <t>US标签</t>
@@ -88,16 +101,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-7804]yy/m/d\ AM/PMh:mm"/>
-    <numFmt numFmtId="177" formatCode="[$-7804]#,##0"/>
+    <numFmt numFmtId="176" formatCode="[$-7804]#,##0"/>
+    <numFmt numFmtId="177" formatCode="[$-7804]yy/m/d\ AM/PMh:mm"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -112,6 +125,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -119,34 +138,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -160,14 +151,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,6 +195,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -257,7 +255,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,49 +297,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,121 +435,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,21 +488,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -516,6 +520,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,152 +593,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -729,10 +748,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -741,52 +763,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1060,20 +1082,20 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="15.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="21.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="15.1083333333333" customWidth="1"/>
     <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="19.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="22.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="19.5583333333333" customWidth="1"/>
+    <col min="5" max="5" width="22.5583333333333" customWidth="1"/>
     <col min="9" max="9" width="16.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" ht="15" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1107,10 +1129,10 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -1145,10 +1167,10 @@
       <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>43249.3965277778</v>
       </c>
-      <c r="J2" s="5" t="b">
+      <c r="J2" s="6" t="b">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1163,7 +1185,7 @@
       <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="5" t="b">
+      <c r="O2" s="6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1176,13 +1198,13 @@
       <c r="F3" s="3"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="5"/>
+      <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2"/>
@@ -1193,13 +1215,13 @@
       <c r="F4" s="3"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="5"/>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2"/>
@@ -1210,13 +1232,13 @@
       <c r="F5" s="3"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="5"/>
+      <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2"/>
@@ -1227,13 +1249,13 @@
       <c r="F6" s="3"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="5"/>
+      <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="2"/>
@@ -1244,13 +1266,13 @@
       <c r="F7" s="3"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="5"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2"/>
@@ -1261,13 +1283,13 @@
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="5"/>
+      <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2"/>
@@ -1278,13 +1300,13 @@
       <c r="F9" s="3"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="5"/>
+      <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2"/>
@@ -1295,13 +1317,13 @@
       <c r="F10" s="3"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="5"/>
+      <c r="O10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
